--- a/Input/inputDataTable.xlsx
+++ b/Input/inputDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\01\01_cantilever\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C26B9-7485-475F-B156-49E885347D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF809E4-12F5-4BD4-B640-92192A8D9F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,12 +518,48 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -553,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -561,39 +597,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -628,6 +645,34 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -642,7 +687,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EF9E624-4E5F-4796-AB9D-784DF29BC668}" name="Table1" displayName="Table1" ref="A1:M145" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EF9E624-4E5F-4796-AB9D-784DF29BC668}" name="Table1" displayName="Table1" ref="A1:M145" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:M145" xr:uid="{6EF9E624-4E5F-4796-AB9D-784DF29BC668}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -659,7 +704,7 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{5D30DA20-EBE6-4C79-AF2E-285056829A29}" name="row" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5D30DA20-EBE6-4C79-AF2E-285056829A29}" name="row" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{88B2701C-F2D6-4099-A7D4-7C676C5B4E5F}" name="FileName"/>
     <tableColumn id="3" xr3:uid="{8E494D53-5F2D-44D1-8CCD-FE513128FBFE}" name="Hw"/>
     <tableColumn id="4" xr3:uid="{B3978CAA-5951-44BD-9731-9A54B9DF332A}" name="H_CB"/>
@@ -964,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3978,40 +4023,40 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="9">
         <v>2</v>
       </c>
-      <c r="D74">
-        <v>0.4</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74">
-        <v>40</v>
-      </c>
-      <c r="G74">
-        <v>360</v>
-      </c>
-      <c r="H74">
+      <c r="D74" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E74" s="9">
+        <v>3</v>
+      </c>
+      <c r="F74" s="9">
+        <v>40</v>
+      </c>
+      <c r="G74" s="9">
+        <v>360</v>
+      </c>
+      <c r="H74" s="9">
         <v>8</v>
       </c>
-      <c r="I74">
-        <v>0.2</v>
-      </c>
-      <c r="J74">
-        <v>0.05</v>
-      </c>
-      <c r="K74">
-        <v>24</v>
-      </c>
-      <c r="L74">
-        <v>3</v>
-      </c>
-      <c r="M74">
+      <c r="I74" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J74" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K74" s="9">
+        <v>24</v>
+      </c>
+      <c r="L74" s="9">
+        <v>3</v>
+      </c>
+      <c r="M74" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4019,40 +4064,40 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="9">
         <v>2</v>
       </c>
-      <c r="D75">
-        <v>0.4</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>40</v>
-      </c>
-      <c r="G75">
-        <v>360</v>
-      </c>
-      <c r="H75">
+      <c r="D75" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E75" s="9">
+        <v>3</v>
+      </c>
+      <c r="F75" s="9">
+        <v>40</v>
+      </c>
+      <c r="G75" s="9">
+        <v>360</v>
+      </c>
+      <c r="H75" s="9">
         <v>15</v>
       </c>
-      <c r="I75">
-        <v>0.2</v>
-      </c>
-      <c r="J75">
-        <v>0.05</v>
-      </c>
-      <c r="K75">
-        <v>24</v>
-      </c>
-      <c r="L75">
-        <v>3</v>
-      </c>
-      <c r="M75">
+      <c r="I75" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J75" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K75" s="9">
+        <v>24</v>
+      </c>
+      <c r="L75" s="9">
+        <v>3</v>
+      </c>
+      <c r="M75" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4060,40 +4105,40 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="9">
         <v>2</v>
       </c>
-      <c r="D76">
-        <v>0.4</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>40</v>
-      </c>
-      <c r="G76">
-        <v>360</v>
-      </c>
-      <c r="H76">
+      <c r="D76" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E76" s="9">
+        <v>3</v>
+      </c>
+      <c r="F76" s="9">
+        <v>40</v>
+      </c>
+      <c r="G76" s="9">
+        <v>360</v>
+      </c>
+      <c r="H76" s="9">
         <v>20</v>
       </c>
-      <c r="I76">
-        <v>0.2</v>
-      </c>
-      <c r="J76">
-        <v>0.05</v>
-      </c>
-      <c r="K76">
-        <v>24</v>
-      </c>
-      <c r="L76">
-        <v>3</v>
-      </c>
-      <c r="M76">
+      <c r="I76" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K76" s="9">
+        <v>24</v>
+      </c>
+      <c r="L76" s="9">
+        <v>3</v>
+      </c>
+      <c r="M76" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4101,40 +4146,40 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="9">
         <v>2</v>
       </c>
-      <c r="D77">
-        <v>0.4</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77">
-        <v>40</v>
-      </c>
-      <c r="G77">
-        <v>420</v>
-      </c>
-      <c r="H77">
+      <c r="D77" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E77" s="9">
+        <v>3</v>
+      </c>
+      <c r="F77" s="9">
+        <v>40</v>
+      </c>
+      <c r="G77" s="9">
+        <v>420</v>
+      </c>
+      <c r="H77" s="9">
         <v>8</v>
       </c>
-      <c r="I77">
-        <v>0.2</v>
-      </c>
-      <c r="J77">
-        <v>0.05</v>
-      </c>
-      <c r="K77">
-        <v>24</v>
-      </c>
-      <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77">
+      <c r="I77" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K77" s="9">
+        <v>24</v>
+      </c>
+      <c r="L77" s="9">
+        <v>3</v>
+      </c>
+      <c r="M77" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4142,40 +4187,40 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="9">
         <v>2</v>
       </c>
-      <c r="D78">
-        <v>0.4</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>40</v>
-      </c>
-      <c r="G78">
-        <v>420</v>
-      </c>
-      <c r="H78">
+      <c r="D78" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E78" s="9">
+        <v>3</v>
+      </c>
+      <c r="F78" s="9">
+        <v>40</v>
+      </c>
+      <c r="G78" s="9">
+        <v>420</v>
+      </c>
+      <c r="H78" s="9">
         <v>15</v>
       </c>
-      <c r="I78">
-        <v>0.2</v>
-      </c>
-      <c r="J78">
-        <v>0.05</v>
-      </c>
-      <c r="K78">
-        <v>24</v>
-      </c>
-      <c r="L78">
-        <v>3</v>
-      </c>
-      <c r="M78">
+      <c r="I78" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K78" s="9">
+        <v>24</v>
+      </c>
+      <c r="L78" s="9">
+        <v>3</v>
+      </c>
+      <c r="M78" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4183,40 +4228,40 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="9">
         <v>2</v>
       </c>
-      <c r="D79">
-        <v>0.4</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>40</v>
-      </c>
-      <c r="G79">
-        <v>420</v>
-      </c>
-      <c r="H79">
+      <c r="D79" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E79" s="9">
+        <v>3</v>
+      </c>
+      <c r="F79" s="9">
+        <v>40</v>
+      </c>
+      <c r="G79" s="9">
+        <v>420</v>
+      </c>
+      <c r="H79" s="9">
         <v>20</v>
       </c>
-      <c r="I79">
-        <v>0.2</v>
-      </c>
-      <c r="J79">
-        <v>0.05</v>
-      </c>
-      <c r="K79">
-        <v>24</v>
-      </c>
-      <c r="L79">
-        <v>3</v>
-      </c>
-      <c r="M79">
+      <c r="I79" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K79" s="9">
+        <v>24</v>
+      </c>
+      <c r="L79" s="9">
+        <v>3</v>
+      </c>
+      <c r="M79" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4224,40 +4269,40 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="9">
         <v>2</v>
       </c>
-      <c r="D80">
-        <v>0.4</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
-      <c r="F80">
-        <v>80</v>
-      </c>
-      <c r="G80">
-        <v>360</v>
-      </c>
-      <c r="H80">
+      <c r="D80" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E80" s="9">
+        <v>3</v>
+      </c>
+      <c r="F80" s="9">
+        <v>80</v>
+      </c>
+      <c r="G80" s="9">
+        <v>360</v>
+      </c>
+      <c r="H80" s="9">
         <v>8</v>
       </c>
-      <c r="I80">
-        <v>0.2</v>
-      </c>
-      <c r="J80">
-        <v>0.05</v>
-      </c>
-      <c r="K80">
-        <v>24</v>
-      </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80">
+      <c r="I80" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K80" s="9">
+        <v>24</v>
+      </c>
+      <c r="L80" s="9">
+        <v>3</v>
+      </c>
+      <c r="M80" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4265,40 +4310,40 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="9">
         <v>2</v>
       </c>
-      <c r="D81">
-        <v>0.4</v>
-      </c>
-      <c r="E81">
-        <v>3</v>
-      </c>
-      <c r="F81">
-        <v>80</v>
-      </c>
-      <c r="G81">
-        <v>360</v>
-      </c>
-      <c r="H81">
+      <c r="D81" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E81" s="9">
+        <v>3</v>
+      </c>
+      <c r="F81" s="9">
+        <v>80</v>
+      </c>
+      <c r="G81" s="9">
+        <v>360</v>
+      </c>
+      <c r="H81" s="9">
         <v>15</v>
       </c>
-      <c r="I81">
-        <v>0.2</v>
-      </c>
-      <c r="J81">
-        <v>0.05</v>
-      </c>
-      <c r="K81">
-        <v>24</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
+      <c r="I81" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K81" s="9">
+        <v>24</v>
+      </c>
+      <c r="L81" s="9">
+        <v>3</v>
+      </c>
+      <c r="M81" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4306,40 +4351,40 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="9">
         <v>2</v>
       </c>
-      <c r="D82">
-        <v>0.4</v>
-      </c>
-      <c r="E82">
-        <v>3</v>
-      </c>
-      <c r="F82">
-        <v>80</v>
-      </c>
-      <c r="G82">
-        <v>360</v>
-      </c>
-      <c r="H82">
+      <c r="D82" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E82" s="9">
+        <v>3</v>
+      </c>
+      <c r="F82" s="9">
+        <v>80</v>
+      </c>
+      <c r="G82" s="9">
+        <v>360</v>
+      </c>
+      <c r="H82" s="9">
         <v>20</v>
       </c>
-      <c r="I82">
-        <v>0.2</v>
-      </c>
-      <c r="J82">
-        <v>0.05</v>
-      </c>
-      <c r="K82">
-        <v>24</v>
-      </c>
-      <c r="L82">
-        <v>3</v>
-      </c>
-      <c r="M82">
+      <c r="I82" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K82" s="9">
+        <v>24</v>
+      </c>
+      <c r="L82" s="9">
+        <v>3</v>
+      </c>
+      <c r="M82" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4347,40 +4392,40 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="9">
         <v>2</v>
       </c>
-      <c r="D83">
-        <v>0.4</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83">
-        <v>80</v>
-      </c>
-      <c r="G83">
-        <v>420</v>
-      </c>
-      <c r="H83">
+      <c r="D83" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E83" s="9">
+        <v>3</v>
+      </c>
+      <c r="F83" s="9">
+        <v>80</v>
+      </c>
+      <c r="G83" s="9">
+        <v>420</v>
+      </c>
+      <c r="H83" s="9">
         <v>8</v>
       </c>
-      <c r="I83">
-        <v>0.2</v>
-      </c>
-      <c r="J83">
-        <v>0.05</v>
-      </c>
-      <c r="K83">
-        <v>24</v>
-      </c>
-      <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83">
+      <c r="I83" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K83" s="9">
+        <v>24</v>
+      </c>
+      <c r="L83" s="9">
+        <v>3</v>
+      </c>
+      <c r="M83" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4388,40 +4433,40 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="9">
         <v>2</v>
       </c>
-      <c r="D84">
-        <v>0.4</v>
-      </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-      <c r="F84">
-        <v>80</v>
-      </c>
-      <c r="G84">
-        <v>420</v>
-      </c>
-      <c r="H84">
+      <c r="D84" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E84" s="9">
+        <v>3</v>
+      </c>
+      <c r="F84" s="9">
+        <v>80</v>
+      </c>
+      <c r="G84" s="9">
+        <v>420</v>
+      </c>
+      <c r="H84" s="9">
         <v>15</v>
       </c>
-      <c r="I84">
-        <v>0.2</v>
-      </c>
-      <c r="J84">
-        <v>0.05</v>
-      </c>
-      <c r="K84">
-        <v>24</v>
-      </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84">
+      <c r="I84" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J84" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K84" s="9">
+        <v>24</v>
+      </c>
+      <c r="L84" s="9">
+        <v>3</v>
+      </c>
+      <c r="M84" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4429,40 +4474,40 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="9">
         <v>2</v>
       </c>
-      <c r="D85">
-        <v>0.4</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>80</v>
-      </c>
-      <c r="G85">
-        <v>420</v>
-      </c>
-      <c r="H85">
+      <c r="D85" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E85" s="9">
+        <v>3</v>
+      </c>
+      <c r="F85" s="9">
+        <v>80</v>
+      </c>
+      <c r="G85" s="9">
+        <v>420</v>
+      </c>
+      <c r="H85" s="9">
         <v>20</v>
       </c>
-      <c r="I85">
-        <v>0.2</v>
-      </c>
-      <c r="J85">
-        <v>0.05</v>
-      </c>
-      <c r="K85">
-        <v>24</v>
-      </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
+      <c r="I85" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J85" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K85" s="9">
+        <v>24</v>
+      </c>
+      <c r="L85" s="9">
+        <v>3</v>
+      </c>
+      <c r="M85" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4470,40 +4515,40 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="8">
         <v>2</v>
       </c>
-      <c r="D86">
-        <v>0.4</v>
-      </c>
-      <c r="E86">
-        <v>5</v>
-      </c>
-      <c r="F86">
-        <v>40</v>
-      </c>
-      <c r="G86">
-        <v>360</v>
-      </c>
-      <c r="H86">
+      <c r="D86" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E86" s="8">
+        <v>5</v>
+      </c>
+      <c r="F86" s="8">
+        <v>40</v>
+      </c>
+      <c r="G86" s="8">
+        <v>360</v>
+      </c>
+      <c r="H86" s="8">
         <v>8</v>
       </c>
-      <c r="I86">
-        <v>0.2</v>
-      </c>
-      <c r="J86">
-        <v>0.05</v>
-      </c>
-      <c r="K86">
-        <v>24</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
+      <c r="I86" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J86" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K86" s="8">
+        <v>24</v>
+      </c>
+      <c r="L86" s="8">
+        <v>3</v>
+      </c>
+      <c r="M86" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4511,40 +4556,40 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="8">
         <v>2</v>
       </c>
-      <c r="D87">
-        <v>0.4</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>40</v>
-      </c>
-      <c r="G87">
-        <v>360</v>
-      </c>
-      <c r="H87">
+      <c r="D87" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E87" s="8">
+        <v>5</v>
+      </c>
+      <c r="F87" s="8">
+        <v>40</v>
+      </c>
+      <c r="G87" s="8">
+        <v>360</v>
+      </c>
+      <c r="H87" s="8">
         <v>15</v>
       </c>
-      <c r="I87">
-        <v>0.2</v>
-      </c>
-      <c r="J87">
-        <v>0.05</v>
-      </c>
-      <c r="K87">
-        <v>24</v>
-      </c>
-      <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
+      <c r="I87" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K87" s="8">
+        <v>24</v>
+      </c>
+      <c r="L87" s="8">
+        <v>3</v>
+      </c>
+      <c r="M87" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4552,40 +4597,40 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="8">
         <v>2</v>
       </c>
-      <c r="D88">
-        <v>0.4</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-      <c r="F88">
-        <v>40</v>
-      </c>
-      <c r="G88">
-        <v>360</v>
-      </c>
-      <c r="H88">
+      <c r="D88" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E88" s="8">
+        <v>5</v>
+      </c>
+      <c r="F88" s="8">
+        <v>40</v>
+      </c>
+      <c r="G88" s="8">
+        <v>360</v>
+      </c>
+      <c r="H88" s="8">
         <v>20</v>
       </c>
-      <c r="I88">
-        <v>0.2</v>
-      </c>
-      <c r="J88">
-        <v>0.05</v>
-      </c>
-      <c r="K88">
-        <v>24</v>
-      </c>
-      <c r="L88">
-        <v>3</v>
-      </c>
-      <c r="M88">
+      <c r="I88" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J88" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K88" s="8">
+        <v>24</v>
+      </c>
+      <c r="L88" s="8">
+        <v>3</v>
+      </c>
+      <c r="M88" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4593,40 +4638,40 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="8">
         <v>2</v>
       </c>
-      <c r="D89">
-        <v>0.4</v>
-      </c>
-      <c r="E89">
-        <v>5</v>
-      </c>
-      <c r="F89">
-        <v>40</v>
-      </c>
-      <c r="G89">
-        <v>420</v>
-      </c>
-      <c r="H89">
+      <c r="D89" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E89" s="8">
+        <v>5</v>
+      </c>
+      <c r="F89" s="8">
+        <v>40</v>
+      </c>
+      <c r="G89" s="8">
+        <v>420</v>
+      </c>
+      <c r="H89" s="8">
         <v>8</v>
       </c>
-      <c r="I89">
-        <v>0.2</v>
-      </c>
-      <c r="J89">
-        <v>0.05</v>
-      </c>
-      <c r="K89">
-        <v>24</v>
-      </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
+      <c r="I89" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K89" s="8">
+        <v>24</v>
+      </c>
+      <c r="L89" s="8">
+        <v>3</v>
+      </c>
+      <c r="M89" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4634,40 +4679,40 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="8">
         <v>2</v>
       </c>
-      <c r="D90">
-        <v>0.4</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
-      <c r="F90">
-        <v>40</v>
-      </c>
-      <c r="G90">
-        <v>420</v>
-      </c>
-      <c r="H90">
+      <c r="D90" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E90" s="8">
+        <v>5</v>
+      </c>
+      <c r="F90" s="8">
+        <v>40</v>
+      </c>
+      <c r="G90" s="8">
+        <v>420</v>
+      </c>
+      <c r="H90" s="8">
         <v>15</v>
       </c>
-      <c r="I90">
-        <v>0.2</v>
-      </c>
-      <c r="J90">
-        <v>0.05</v>
-      </c>
-      <c r="K90">
-        <v>24</v>
-      </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
+      <c r="I90" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K90" s="8">
+        <v>24</v>
+      </c>
+      <c r="L90" s="8">
+        <v>3</v>
+      </c>
+      <c r="M90" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4675,40 +4720,40 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="8">
         <v>2</v>
       </c>
-      <c r="D91">
-        <v>0.4</v>
-      </c>
-      <c r="E91">
-        <v>5</v>
-      </c>
-      <c r="F91">
-        <v>40</v>
-      </c>
-      <c r="G91">
-        <v>420</v>
-      </c>
-      <c r="H91">
+      <c r="D91" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E91" s="8">
+        <v>5</v>
+      </c>
+      <c r="F91" s="8">
+        <v>40</v>
+      </c>
+      <c r="G91" s="8">
+        <v>420</v>
+      </c>
+      <c r="H91" s="8">
         <v>20</v>
       </c>
-      <c r="I91">
-        <v>0.2</v>
-      </c>
-      <c r="J91">
-        <v>0.05</v>
-      </c>
-      <c r="K91">
-        <v>24</v>
-      </c>
-      <c r="L91">
-        <v>3</v>
-      </c>
-      <c r="M91">
+      <c r="I91" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K91" s="8">
+        <v>24</v>
+      </c>
+      <c r="L91" s="8">
+        <v>3</v>
+      </c>
+      <c r="M91" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4716,40 +4761,40 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="8">
         <v>2</v>
       </c>
-      <c r="D92">
-        <v>0.4</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92">
-        <v>80</v>
-      </c>
-      <c r="G92">
-        <v>360</v>
-      </c>
-      <c r="H92">
+      <c r="D92" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E92" s="8">
+        <v>5</v>
+      </c>
+      <c r="F92" s="8">
+        <v>80</v>
+      </c>
+      <c r="G92" s="8">
+        <v>360</v>
+      </c>
+      <c r="H92" s="8">
         <v>8</v>
       </c>
-      <c r="I92">
-        <v>0.2</v>
-      </c>
-      <c r="J92">
-        <v>0.05</v>
-      </c>
-      <c r="K92">
-        <v>24</v>
-      </c>
-      <c r="L92">
-        <v>3</v>
-      </c>
-      <c r="M92">
+      <c r="I92" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K92" s="8">
+        <v>24</v>
+      </c>
+      <c r="L92" s="8">
+        <v>3</v>
+      </c>
+      <c r="M92" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4757,40 +4802,40 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="8">
         <v>2</v>
       </c>
-      <c r="D93">
-        <v>0.4</v>
-      </c>
-      <c r="E93">
-        <v>5</v>
-      </c>
-      <c r="F93">
-        <v>80</v>
-      </c>
-      <c r="G93">
-        <v>360</v>
-      </c>
-      <c r="H93">
+      <c r="D93" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E93" s="8">
+        <v>5</v>
+      </c>
+      <c r="F93" s="8">
+        <v>80</v>
+      </c>
+      <c r="G93" s="8">
+        <v>360</v>
+      </c>
+      <c r="H93" s="8">
         <v>15</v>
       </c>
-      <c r="I93">
-        <v>0.2</v>
-      </c>
-      <c r="J93">
-        <v>0.05</v>
-      </c>
-      <c r="K93">
-        <v>24</v>
-      </c>
-      <c r="L93">
-        <v>3</v>
-      </c>
-      <c r="M93">
+      <c r="I93" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J93" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K93" s="8">
+        <v>24</v>
+      </c>
+      <c r="L93" s="8">
+        <v>3</v>
+      </c>
+      <c r="M93" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4798,40 +4843,40 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="8">
         <v>2</v>
       </c>
-      <c r="D94">
-        <v>0.4</v>
-      </c>
-      <c r="E94">
-        <v>5</v>
-      </c>
-      <c r="F94">
-        <v>80</v>
-      </c>
-      <c r="G94">
-        <v>360</v>
-      </c>
-      <c r="H94">
+      <c r="D94" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E94" s="8">
+        <v>5</v>
+      </c>
+      <c r="F94" s="8">
+        <v>80</v>
+      </c>
+      <c r="G94" s="8">
+        <v>360</v>
+      </c>
+      <c r="H94" s="8">
         <v>20</v>
       </c>
-      <c r="I94">
-        <v>0.2</v>
-      </c>
-      <c r="J94">
-        <v>0.05</v>
-      </c>
-      <c r="K94">
-        <v>24</v>
-      </c>
-      <c r="L94">
-        <v>3</v>
-      </c>
-      <c r="M94">
+      <c r="I94" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J94" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K94" s="8">
+        <v>24</v>
+      </c>
+      <c r="L94" s="8">
+        <v>3</v>
+      </c>
+      <c r="M94" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4839,40 +4884,40 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="8">
         <v>2</v>
       </c>
-      <c r="D95">
-        <v>0.4</v>
-      </c>
-      <c r="E95">
-        <v>5</v>
-      </c>
-      <c r="F95">
-        <v>80</v>
-      </c>
-      <c r="G95">
-        <v>420</v>
-      </c>
-      <c r="H95">
+      <c r="D95" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E95" s="8">
+        <v>5</v>
+      </c>
+      <c r="F95" s="8">
+        <v>80</v>
+      </c>
+      <c r="G95" s="8">
+        <v>420</v>
+      </c>
+      <c r="H95" s="8">
         <v>8</v>
       </c>
-      <c r="I95">
-        <v>0.2</v>
-      </c>
-      <c r="J95">
-        <v>0.05</v>
-      </c>
-      <c r="K95">
-        <v>24</v>
-      </c>
-      <c r="L95">
-        <v>3</v>
-      </c>
-      <c r="M95">
+      <c r="I95" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J95" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K95" s="8">
+        <v>24</v>
+      </c>
+      <c r="L95" s="8">
+        <v>3</v>
+      </c>
+      <c r="M95" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4880,40 +4925,40 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="8">
         <v>2</v>
       </c>
-      <c r="D96">
-        <v>0.4</v>
-      </c>
-      <c r="E96">
-        <v>5</v>
-      </c>
-      <c r="F96">
-        <v>80</v>
-      </c>
-      <c r="G96">
-        <v>420</v>
-      </c>
-      <c r="H96">
+      <c r="D96" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E96" s="8">
+        <v>5</v>
+      </c>
+      <c r="F96" s="8">
+        <v>80</v>
+      </c>
+      <c r="G96" s="8">
+        <v>420</v>
+      </c>
+      <c r="H96" s="8">
         <v>15</v>
       </c>
-      <c r="I96">
-        <v>0.2</v>
-      </c>
-      <c r="J96">
-        <v>0.05</v>
-      </c>
-      <c r="K96">
-        <v>24</v>
-      </c>
-      <c r="L96">
-        <v>3</v>
-      </c>
-      <c r="M96">
+      <c r="I96" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K96" s="8">
+        <v>24</v>
+      </c>
+      <c r="L96" s="8">
+        <v>3</v>
+      </c>
+      <c r="M96" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4921,40 +4966,40 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="8">
         <v>2</v>
       </c>
-      <c r="D97">
-        <v>0.4</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-      <c r="F97">
-        <v>80</v>
-      </c>
-      <c r="G97">
-        <v>420</v>
-      </c>
-      <c r="H97">
+      <c r="D97" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E97" s="8">
+        <v>5</v>
+      </c>
+      <c r="F97" s="8">
+        <v>80</v>
+      </c>
+      <c r="G97" s="8">
+        <v>420</v>
+      </c>
+      <c r="H97" s="8">
         <v>20</v>
       </c>
-      <c r="I97">
-        <v>0.2</v>
-      </c>
-      <c r="J97">
-        <v>0.05</v>
-      </c>
-      <c r="K97">
-        <v>24</v>
-      </c>
-      <c r="L97">
-        <v>3</v>
-      </c>
-      <c r="M97">
+      <c r="I97" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J97" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K97" s="8">
+        <v>24</v>
+      </c>
+      <c r="L97" s="8">
+        <v>3</v>
+      </c>
+      <c r="M97" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4962,40 +5007,40 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="7">
         <v>4</v>
       </c>
-      <c r="D98">
-        <v>0.25</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98">
-        <v>40</v>
-      </c>
-      <c r="G98">
-        <v>360</v>
-      </c>
-      <c r="H98">
+      <c r="D98" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E98" s="7">
+        <v>3</v>
+      </c>
+      <c r="F98" s="7">
+        <v>40</v>
+      </c>
+      <c r="G98" s="7">
+        <v>360</v>
+      </c>
+      <c r="H98" s="7">
         <v>8</v>
       </c>
-      <c r="I98">
-        <v>0.2</v>
-      </c>
-      <c r="J98">
-        <v>0.05</v>
-      </c>
-      <c r="K98">
-        <v>24</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
+      <c r="I98" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K98" s="7">
+        <v>24</v>
+      </c>
+      <c r="L98" s="7">
+        <v>3</v>
+      </c>
+      <c r="M98" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5003,40 +5048,40 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="7">
         <v>4</v>
       </c>
-      <c r="D99">
-        <v>0.25</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
-      </c>
-      <c r="F99">
-        <v>40</v>
-      </c>
-      <c r="G99">
-        <v>360</v>
-      </c>
-      <c r="H99">
+      <c r="D99" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E99" s="7">
+        <v>3</v>
+      </c>
+      <c r="F99" s="7">
+        <v>40</v>
+      </c>
+      <c r="G99" s="7">
+        <v>360</v>
+      </c>
+      <c r="H99" s="7">
         <v>15</v>
       </c>
-      <c r="I99">
-        <v>0.2</v>
-      </c>
-      <c r="J99">
-        <v>0.05</v>
-      </c>
-      <c r="K99">
-        <v>24</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
+      <c r="I99" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K99" s="7">
+        <v>24</v>
+      </c>
+      <c r="L99" s="7">
+        <v>3</v>
+      </c>
+      <c r="M99" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5044,40 +5089,40 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="7">
         <v>4</v>
       </c>
-      <c r="D100">
-        <v>0.25</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>40</v>
-      </c>
-      <c r="G100">
-        <v>360</v>
-      </c>
-      <c r="H100">
+      <c r="D100" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E100" s="7">
+        <v>3</v>
+      </c>
+      <c r="F100" s="7">
+        <v>40</v>
+      </c>
+      <c r="G100" s="7">
+        <v>360</v>
+      </c>
+      <c r="H100" s="7">
         <v>20</v>
       </c>
-      <c r="I100">
-        <v>0.2</v>
-      </c>
-      <c r="J100">
-        <v>0.05</v>
-      </c>
-      <c r="K100">
-        <v>24</v>
-      </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
+      <c r="I100" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K100" s="7">
+        <v>24</v>
+      </c>
+      <c r="L100" s="7">
+        <v>3</v>
+      </c>
+      <c r="M100" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5085,40 +5130,40 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="7">
         <v>4</v>
       </c>
-      <c r="D101">
-        <v>0.25</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
-      <c r="F101">
-        <v>40</v>
-      </c>
-      <c r="G101">
-        <v>420</v>
-      </c>
-      <c r="H101">
+      <c r="D101" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E101" s="7">
+        <v>3</v>
+      </c>
+      <c r="F101" s="7">
+        <v>40</v>
+      </c>
+      <c r="G101" s="7">
+        <v>420</v>
+      </c>
+      <c r="H101" s="7">
         <v>8</v>
       </c>
-      <c r="I101">
-        <v>0.2</v>
-      </c>
-      <c r="J101">
-        <v>0.05</v>
-      </c>
-      <c r="K101">
-        <v>24</v>
-      </c>
-      <c r="L101">
-        <v>3</v>
-      </c>
-      <c r="M101">
+      <c r="I101" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K101" s="7">
+        <v>24</v>
+      </c>
+      <c r="L101" s="7">
+        <v>3</v>
+      </c>
+      <c r="M101" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5126,40 +5171,40 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="7">
         <v>4</v>
       </c>
-      <c r="D102">
-        <v>0.25</v>
-      </c>
-      <c r="E102">
-        <v>3</v>
-      </c>
-      <c r="F102">
-        <v>40</v>
-      </c>
-      <c r="G102">
-        <v>420</v>
-      </c>
-      <c r="H102">
+      <c r="D102" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E102" s="7">
+        <v>3</v>
+      </c>
+      <c r="F102" s="7">
+        <v>40</v>
+      </c>
+      <c r="G102" s="7">
+        <v>420</v>
+      </c>
+      <c r="H102" s="7">
         <v>15</v>
       </c>
-      <c r="I102">
-        <v>0.2</v>
-      </c>
-      <c r="J102">
-        <v>0.05</v>
-      </c>
-      <c r="K102">
-        <v>24</v>
-      </c>
-      <c r="L102">
-        <v>3</v>
-      </c>
-      <c r="M102">
+      <c r="I102" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J102" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K102" s="7">
+        <v>24</v>
+      </c>
+      <c r="L102" s="7">
+        <v>3</v>
+      </c>
+      <c r="M102" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5167,40 +5212,40 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="7">
         <v>4</v>
       </c>
-      <c r="D103">
-        <v>0.25</v>
-      </c>
-      <c r="E103">
-        <v>3</v>
-      </c>
-      <c r="F103">
-        <v>40</v>
-      </c>
-      <c r="G103">
-        <v>420</v>
-      </c>
-      <c r="H103">
+      <c r="D103" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E103" s="7">
+        <v>3</v>
+      </c>
+      <c r="F103" s="7">
+        <v>40</v>
+      </c>
+      <c r="G103" s="7">
+        <v>420</v>
+      </c>
+      <c r="H103" s="7">
         <v>20</v>
       </c>
-      <c r="I103">
-        <v>0.2</v>
-      </c>
-      <c r="J103">
-        <v>0.05</v>
-      </c>
-      <c r="K103">
-        <v>24</v>
-      </c>
-      <c r="L103">
-        <v>3</v>
-      </c>
-      <c r="M103">
+      <c r="I103" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K103" s="7">
+        <v>24</v>
+      </c>
+      <c r="L103" s="7">
+        <v>3</v>
+      </c>
+      <c r="M103" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5208,40 +5253,40 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="7">
         <v>4</v>
       </c>
-      <c r="D104">
-        <v>0.25</v>
-      </c>
-      <c r="E104">
-        <v>3</v>
-      </c>
-      <c r="F104">
-        <v>80</v>
-      </c>
-      <c r="G104">
-        <v>360</v>
-      </c>
-      <c r="H104">
+      <c r="D104" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E104" s="7">
+        <v>3</v>
+      </c>
+      <c r="F104" s="7">
+        <v>80</v>
+      </c>
+      <c r="G104" s="7">
+        <v>360</v>
+      </c>
+      <c r="H104" s="7">
         <v>8</v>
       </c>
-      <c r="I104">
-        <v>0.2</v>
-      </c>
-      <c r="J104">
-        <v>0.05</v>
-      </c>
-      <c r="K104">
-        <v>24</v>
-      </c>
-      <c r="L104">
-        <v>3</v>
-      </c>
-      <c r="M104">
+      <c r="I104" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J104" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K104" s="7">
+        <v>24</v>
+      </c>
+      <c r="L104" s="7">
+        <v>3</v>
+      </c>
+      <c r="M104" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5249,40 +5294,40 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="7">
         <v>4</v>
       </c>
-      <c r="D105">
-        <v>0.25</v>
-      </c>
-      <c r="E105">
-        <v>3</v>
-      </c>
-      <c r="F105">
-        <v>80</v>
-      </c>
-      <c r="G105">
-        <v>360</v>
-      </c>
-      <c r="H105">
+      <c r="D105" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E105" s="7">
+        <v>3</v>
+      </c>
+      <c r="F105" s="7">
+        <v>80</v>
+      </c>
+      <c r="G105" s="7">
+        <v>360</v>
+      </c>
+      <c r="H105" s="7">
         <v>15</v>
       </c>
-      <c r="I105">
-        <v>0.2</v>
-      </c>
-      <c r="J105">
-        <v>0.05</v>
-      </c>
-      <c r="K105">
-        <v>24</v>
-      </c>
-      <c r="L105">
-        <v>3</v>
-      </c>
-      <c r="M105">
+      <c r="I105" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J105" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K105" s="7">
+        <v>24</v>
+      </c>
+      <c r="L105" s="7">
+        <v>3</v>
+      </c>
+      <c r="M105" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5290,40 +5335,40 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="7">
         <v>4</v>
       </c>
-      <c r="D106">
-        <v>0.25</v>
-      </c>
-      <c r="E106">
-        <v>3</v>
-      </c>
-      <c r="F106">
-        <v>80</v>
-      </c>
-      <c r="G106">
-        <v>360</v>
-      </c>
-      <c r="H106">
+      <c r="D106" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E106" s="7">
+        <v>3</v>
+      </c>
+      <c r="F106" s="7">
+        <v>80</v>
+      </c>
+      <c r="G106" s="7">
+        <v>360</v>
+      </c>
+      <c r="H106" s="7">
         <v>20</v>
       </c>
-      <c r="I106">
-        <v>0.2</v>
-      </c>
-      <c r="J106">
-        <v>0.05</v>
-      </c>
-      <c r="K106">
-        <v>24</v>
-      </c>
-      <c r="L106">
-        <v>3</v>
-      </c>
-      <c r="M106">
+      <c r="I106" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J106" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K106" s="7">
+        <v>24</v>
+      </c>
+      <c r="L106" s="7">
+        <v>3</v>
+      </c>
+      <c r="M106" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5331,40 +5376,40 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="7">
         <v>4</v>
       </c>
-      <c r="D107">
-        <v>0.25</v>
-      </c>
-      <c r="E107">
-        <v>3</v>
-      </c>
-      <c r="F107">
-        <v>80</v>
-      </c>
-      <c r="G107">
-        <v>420</v>
-      </c>
-      <c r="H107">
+      <c r="D107" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E107" s="7">
+        <v>3</v>
+      </c>
+      <c r="F107" s="7">
+        <v>80</v>
+      </c>
+      <c r="G107" s="7">
+        <v>420</v>
+      </c>
+      <c r="H107" s="7">
         <v>8</v>
       </c>
-      <c r="I107">
-        <v>0.2</v>
-      </c>
-      <c r="J107">
-        <v>0.05</v>
-      </c>
-      <c r="K107">
-        <v>24</v>
-      </c>
-      <c r="L107">
-        <v>3</v>
-      </c>
-      <c r="M107">
+      <c r="I107" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K107" s="7">
+        <v>24</v>
+      </c>
+      <c r="L107" s="7">
+        <v>3</v>
+      </c>
+      <c r="M107" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5372,40 +5417,40 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="7">
         <v>4</v>
       </c>
-      <c r="D108">
-        <v>0.25</v>
-      </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
-      <c r="F108">
-        <v>80</v>
-      </c>
-      <c r="G108">
-        <v>420</v>
-      </c>
-      <c r="H108">
+      <c r="D108" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E108" s="7">
+        <v>3</v>
+      </c>
+      <c r="F108" s="7">
+        <v>80</v>
+      </c>
+      <c r="G108" s="7">
+        <v>420</v>
+      </c>
+      <c r="H108" s="7">
         <v>15</v>
       </c>
-      <c r="I108">
-        <v>0.2</v>
-      </c>
-      <c r="J108">
-        <v>0.05</v>
-      </c>
-      <c r="K108">
-        <v>24</v>
-      </c>
-      <c r="L108">
-        <v>3</v>
-      </c>
-      <c r="M108">
+      <c r="I108" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J108" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K108" s="7">
+        <v>24</v>
+      </c>
+      <c r="L108" s="7">
+        <v>3</v>
+      </c>
+      <c r="M108" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5413,40 +5458,40 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="7">
         <v>4</v>
       </c>
-      <c r="D109">
-        <v>0.25</v>
-      </c>
-      <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>80</v>
-      </c>
-      <c r="G109">
-        <v>420</v>
-      </c>
-      <c r="H109">
+      <c r="D109" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E109" s="7">
+        <v>3</v>
+      </c>
+      <c r="F109" s="7">
+        <v>80</v>
+      </c>
+      <c r="G109" s="7">
+        <v>420</v>
+      </c>
+      <c r="H109" s="7">
         <v>20</v>
       </c>
-      <c r="I109">
-        <v>0.2</v>
-      </c>
-      <c r="J109">
-        <v>0.05</v>
-      </c>
-      <c r="K109">
-        <v>24</v>
-      </c>
-      <c r="L109">
-        <v>3</v>
-      </c>
-      <c r="M109">
+      <c r="I109" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J109" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K109" s="7">
+        <v>24</v>
+      </c>
+      <c r="L109" s="7">
+        <v>3</v>
+      </c>
+      <c r="M109" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5454,40 +5499,40 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="6">
         <v>4</v>
       </c>
-      <c r="D110">
-        <v>0.25</v>
-      </c>
-      <c r="E110">
-        <v>5</v>
-      </c>
-      <c r="F110">
-        <v>40</v>
-      </c>
-      <c r="G110">
-        <v>360</v>
-      </c>
-      <c r="H110">
+      <c r="D110" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E110" s="6">
+        <v>5</v>
+      </c>
+      <c r="F110" s="6">
+        <v>40</v>
+      </c>
+      <c r="G110" s="6">
+        <v>360</v>
+      </c>
+      <c r="H110" s="6">
         <v>8</v>
       </c>
-      <c r="I110">
-        <v>0.2</v>
-      </c>
-      <c r="J110">
-        <v>0.05</v>
-      </c>
-      <c r="K110">
-        <v>24</v>
-      </c>
-      <c r="L110">
-        <v>3</v>
-      </c>
-      <c r="M110">
+      <c r="I110" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K110" s="6">
+        <v>24</v>
+      </c>
+      <c r="L110" s="6">
+        <v>3</v>
+      </c>
+      <c r="M110" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5495,40 +5540,40 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="6">
         <v>4</v>
       </c>
-      <c r="D111">
-        <v>0.25</v>
-      </c>
-      <c r="E111">
-        <v>5</v>
-      </c>
-      <c r="F111">
-        <v>40</v>
-      </c>
-      <c r="G111">
-        <v>360</v>
-      </c>
-      <c r="H111">
+      <c r="D111" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E111" s="6">
+        <v>5</v>
+      </c>
+      <c r="F111" s="6">
+        <v>40</v>
+      </c>
+      <c r="G111" s="6">
+        <v>360</v>
+      </c>
+      <c r="H111" s="6">
         <v>15</v>
       </c>
-      <c r="I111">
-        <v>0.2</v>
-      </c>
-      <c r="J111">
-        <v>0.05</v>
-      </c>
-      <c r="K111">
-        <v>24</v>
-      </c>
-      <c r="L111">
-        <v>3</v>
-      </c>
-      <c r="M111">
+      <c r="I111" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K111" s="6">
+        <v>24</v>
+      </c>
+      <c r="L111" s="6">
+        <v>3</v>
+      </c>
+      <c r="M111" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5536,40 +5581,40 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="6">
         <v>4</v>
       </c>
-      <c r="D112">
-        <v>0.25</v>
-      </c>
-      <c r="E112">
-        <v>5</v>
-      </c>
-      <c r="F112">
-        <v>40</v>
-      </c>
-      <c r="G112">
-        <v>360</v>
-      </c>
-      <c r="H112">
+      <c r="D112" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E112" s="6">
+        <v>5</v>
+      </c>
+      <c r="F112" s="6">
+        <v>40</v>
+      </c>
+      <c r="G112" s="6">
+        <v>360</v>
+      </c>
+      <c r="H112" s="6">
         <v>20</v>
       </c>
-      <c r="I112">
-        <v>0.2</v>
-      </c>
-      <c r="J112">
-        <v>0.05</v>
-      </c>
-      <c r="K112">
-        <v>24</v>
-      </c>
-      <c r="L112">
-        <v>3</v>
-      </c>
-      <c r="M112">
+      <c r="I112" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K112" s="6">
+        <v>24</v>
+      </c>
+      <c r="L112" s="6">
+        <v>3</v>
+      </c>
+      <c r="M112" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5577,40 +5622,40 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="6">
         <v>4</v>
       </c>
-      <c r="D113">
-        <v>0.25</v>
-      </c>
-      <c r="E113">
-        <v>5</v>
-      </c>
-      <c r="F113">
-        <v>40</v>
-      </c>
-      <c r="G113">
-        <v>420</v>
-      </c>
-      <c r="H113">
+      <c r="D113" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E113" s="6">
+        <v>5</v>
+      </c>
+      <c r="F113" s="6">
+        <v>40</v>
+      </c>
+      <c r="G113" s="6">
+        <v>420</v>
+      </c>
+      <c r="H113" s="6">
         <v>8</v>
       </c>
-      <c r="I113">
-        <v>0.2</v>
-      </c>
-      <c r="J113">
-        <v>0.05</v>
-      </c>
-      <c r="K113">
-        <v>24</v>
-      </c>
-      <c r="L113">
-        <v>3</v>
-      </c>
-      <c r="M113">
+      <c r="I113" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J113" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K113" s="6">
+        <v>24</v>
+      </c>
+      <c r="L113" s="6">
+        <v>3</v>
+      </c>
+      <c r="M113" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5618,40 +5663,40 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="6">
         <v>4</v>
       </c>
-      <c r="D114">
-        <v>0.25</v>
-      </c>
-      <c r="E114">
-        <v>5</v>
-      </c>
-      <c r="F114">
-        <v>40</v>
-      </c>
-      <c r="G114">
-        <v>420</v>
-      </c>
-      <c r="H114">
+      <c r="D114" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E114" s="6">
+        <v>5</v>
+      </c>
+      <c r="F114" s="6">
+        <v>40</v>
+      </c>
+      <c r="G114" s="6">
+        <v>420</v>
+      </c>
+      <c r="H114" s="6">
         <v>15</v>
       </c>
-      <c r="I114">
-        <v>0.2</v>
-      </c>
-      <c r="J114">
-        <v>0.05</v>
-      </c>
-      <c r="K114">
-        <v>24</v>
-      </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
+      <c r="I114" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K114" s="6">
+        <v>24</v>
+      </c>
+      <c r="L114" s="6">
+        <v>3</v>
+      </c>
+      <c r="M114" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5659,40 +5704,40 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="6">
         <v>4</v>
       </c>
-      <c r="D115">
-        <v>0.25</v>
-      </c>
-      <c r="E115">
-        <v>5</v>
-      </c>
-      <c r="F115">
-        <v>40</v>
-      </c>
-      <c r="G115">
-        <v>420</v>
-      </c>
-      <c r="H115">
+      <c r="D115" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E115" s="6">
+        <v>5</v>
+      </c>
+      <c r="F115" s="6">
+        <v>40</v>
+      </c>
+      <c r="G115" s="6">
+        <v>420</v>
+      </c>
+      <c r="H115" s="6">
         <v>20</v>
       </c>
-      <c r="I115">
-        <v>0.2</v>
-      </c>
-      <c r="J115">
-        <v>0.05</v>
-      </c>
-      <c r="K115">
-        <v>24</v>
-      </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
+      <c r="I115" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K115" s="6">
+        <v>24</v>
+      </c>
+      <c r="L115" s="6">
+        <v>3</v>
+      </c>
+      <c r="M115" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5700,40 +5745,40 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="6">
         <v>4</v>
       </c>
-      <c r="D116">
-        <v>0.25</v>
-      </c>
-      <c r="E116">
-        <v>5</v>
-      </c>
-      <c r="F116">
-        <v>80</v>
-      </c>
-      <c r="G116">
-        <v>360</v>
-      </c>
-      <c r="H116">
+      <c r="D116" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E116" s="6">
+        <v>5</v>
+      </c>
+      <c r="F116" s="6">
+        <v>80</v>
+      </c>
+      <c r="G116" s="6">
+        <v>360</v>
+      </c>
+      <c r="H116" s="6">
         <v>8</v>
       </c>
-      <c r="I116">
-        <v>0.2</v>
-      </c>
-      <c r="J116">
-        <v>0.05</v>
-      </c>
-      <c r="K116">
-        <v>24</v>
-      </c>
-      <c r="L116">
-        <v>3</v>
-      </c>
-      <c r="M116">
+      <c r="I116" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K116" s="6">
+        <v>24</v>
+      </c>
+      <c r="L116" s="6">
+        <v>3</v>
+      </c>
+      <c r="M116" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5741,40 +5786,40 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="6">
         <v>4</v>
       </c>
-      <c r="D117">
-        <v>0.25</v>
-      </c>
-      <c r="E117">
-        <v>5</v>
-      </c>
-      <c r="F117">
-        <v>80</v>
-      </c>
-      <c r="G117">
-        <v>360</v>
-      </c>
-      <c r="H117">
+      <c r="D117" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E117" s="6">
+        <v>5</v>
+      </c>
+      <c r="F117" s="6">
+        <v>80</v>
+      </c>
+      <c r="G117" s="6">
+        <v>360</v>
+      </c>
+      <c r="H117" s="6">
         <v>15</v>
       </c>
-      <c r="I117">
-        <v>0.2</v>
-      </c>
-      <c r="J117">
-        <v>0.05</v>
-      </c>
-      <c r="K117">
-        <v>24</v>
-      </c>
-      <c r="L117">
-        <v>3</v>
-      </c>
-      <c r="M117">
+      <c r="I117" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K117" s="6">
+        <v>24</v>
+      </c>
+      <c r="L117" s="6">
+        <v>3</v>
+      </c>
+      <c r="M117" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5782,40 +5827,40 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="6">
         <v>4</v>
       </c>
-      <c r="D118">
-        <v>0.25</v>
-      </c>
-      <c r="E118">
-        <v>5</v>
-      </c>
-      <c r="F118">
-        <v>80</v>
-      </c>
-      <c r="G118">
-        <v>360</v>
-      </c>
-      <c r="H118">
+      <c r="D118" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E118" s="6">
+        <v>5</v>
+      </c>
+      <c r="F118" s="6">
+        <v>80</v>
+      </c>
+      <c r="G118" s="6">
+        <v>360</v>
+      </c>
+      <c r="H118" s="6">
         <v>20</v>
       </c>
-      <c r="I118">
-        <v>0.2</v>
-      </c>
-      <c r="J118">
-        <v>0.05</v>
-      </c>
-      <c r="K118">
-        <v>24</v>
-      </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
+      <c r="I118" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K118" s="6">
+        <v>24</v>
+      </c>
+      <c r="L118" s="6">
+        <v>3</v>
+      </c>
+      <c r="M118" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5823,40 +5868,40 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="6">
         <v>4</v>
       </c>
-      <c r="D119">
-        <v>0.25</v>
-      </c>
-      <c r="E119">
-        <v>5</v>
-      </c>
-      <c r="F119">
-        <v>80</v>
-      </c>
-      <c r="G119">
-        <v>420</v>
-      </c>
-      <c r="H119">
+      <c r="D119" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E119" s="6">
+        <v>5</v>
+      </c>
+      <c r="F119" s="6">
+        <v>80</v>
+      </c>
+      <c r="G119" s="6">
+        <v>420</v>
+      </c>
+      <c r="H119" s="6">
         <v>8</v>
       </c>
-      <c r="I119">
-        <v>0.2</v>
-      </c>
-      <c r="J119">
-        <v>0.05</v>
-      </c>
-      <c r="K119">
-        <v>24</v>
-      </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
-      <c r="M119">
+      <c r="I119" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J119" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K119" s="6">
+        <v>24</v>
+      </c>
+      <c r="L119" s="6">
+        <v>3</v>
+      </c>
+      <c r="M119" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5864,40 +5909,40 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="6">
         <v>4</v>
       </c>
-      <c r="D120">
-        <v>0.25</v>
-      </c>
-      <c r="E120">
-        <v>5</v>
-      </c>
-      <c r="F120">
-        <v>80</v>
-      </c>
-      <c r="G120">
-        <v>420</v>
-      </c>
-      <c r="H120">
+      <c r="D120" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E120" s="6">
+        <v>5</v>
+      </c>
+      <c r="F120" s="6">
+        <v>80</v>
+      </c>
+      <c r="G120" s="6">
+        <v>420</v>
+      </c>
+      <c r="H120" s="6">
         <v>15</v>
       </c>
-      <c r="I120">
-        <v>0.2</v>
-      </c>
-      <c r="J120">
-        <v>0.05</v>
-      </c>
-      <c r="K120">
-        <v>24</v>
-      </c>
-      <c r="L120">
-        <v>3</v>
-      </c>
-      <c r="M120">
+      <c r="I120" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K120" s="6">
+        <v>24</v>
+      </c>
+      <c r="L120" s="6">
+        <v>3</v>
+      </c>
+      <c r="M120" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5905,40 +5950,40 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="6">
         <v>4</v>
       </c>
-      <c r="D121">
-        <v>0.25</v>
-      </c>
-      <c r="E121">
-        <v>5</v>
-      </c>
-      <c r="F121">
-        <v>80</v>
-      </c>
-      <c r="G121">
-        <v>420</v>
-      </c>
-      <c r="H121">
+      <c r="D121" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E121" s="6">
+        <v>5</v>
+      </c>
+      <c r="F121" s="6">
+        <v>80</v>
+      </c>
+      <c r="G121" s="6">
+        <v>420</v>
+      </c>
+      <c r="H121" s="6">
         <v>20</v>
       </c>
-      <c r="I121">
-        <v>0.2</v>
-      </c>
-      <c r="J121">
-        <v>0.05</v>
-      </c>
-      <c r="K121">
-        <v>24</v>
-      </c>
-      <c r="L121">
-        <v>3</v>
-      </c>
-      <c r="M121">
+      <c r="I121" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J121" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K121" s="6">
+        <v>24</v>
+      </c>
+      <c r="L121" s="6">
+        <v>3</v>
+      </c>
+      <c r="M121" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5946,40 +5991,40 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="5">
         <v>4</v>
       </c>
-      <c r="D122">
-        <v>0.4</v>
-      </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-      <c r="F122">
-        <v>40</v>
-      </c>
-      <c r="G122">
-        <v>360</v>
-      </c>
-      <c r="H122">
+      <c r="D122" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E122" s="5">
+        <v>3</v>
+      </c>
+      <c r="F122" s="5">
+        <v>40</v>
+      </c>
+      <c r="G122" s="5">
+        <v>360</v>
+      </c>
+      <c r="H122" s="5">
         <v>8</v>
       </c>
-      <c r="I122">
-        <v>0.2</v>
-      </c>
-      <c r="J122">
-        <v>0.05</v>
-      </c>
-      <c r="K122">
-        <v>24</v>
-      </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
+      <c r="I122" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K122" s="5">
+        <v>24</v>
+      </c>
+      <c r="L122" s="5">
+        <v>3</v>
+      </c>
+      <c r="M122" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5987,40 +6032,40 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="5">
         <v>4</v>
       </c>
-      <c r="D123">
-        <v>0.4</v>
-      </c>
-      <c r="E123">
-        <v>3</v>
-      </c>
-      <c r="F123">
-        <v>40</v>
-      </c>
-      <c r="G123">
-        <v>360</v>
-      </c>
-      <c r="H123">
+      <c r="D123" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E123" s="5">
+        <v>3</v>
+      </c>
+      <c r="F123" s="5">
+        <v>40</v>
+      </c>
+      <c r="G123" s="5">
+        <v>360</v>
+      </c>
+      <c r="H123" s="5">
         <v>15</v>
       </c>
-      <c r="I123">
-        <v>0.2</v>
-      </c>
-      <c r="J123">
-        <v>0.05</v>
-      </c>
-      <c r="K123">
-        <v>24</v>
-      </c>
-      <c r="L123">
-        <v>3</v>
-      </c>
-      <c r="M123">
+      <c r="I123" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K123" s="5">
+        <v>24</v>
+      </c>
+      <c r="L123" s="5">
+        <v>3</v>
+      </c>
+      <c r="M123" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6028,40 +6073,40 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="5">
         <v>4</v>
       </c>
-      <c r="D124">
-        <v>0.4</v>
-      </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
-      <c r="F124">
-        <v>40</v>
-      </c>
-      <c r="G124">
-        <v>360</v>
-      </c>
-      <c r="H124">
+      <c r="D124" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E124" s="5">
+        <v>3</v>
+      </c>
+      <c r="F124" s="5">
+        <v>40</v>
+      </c>
+      <c r="G124" s="5">
+        <v>360</v>
+      </c>
+      <c r="H124" s="5">
         <v>20</v>
       </c>
-      <c r="I124">
-        <v>0.2</v>
-      </c>
-      <c r="J124">
-        <v>0.05</v>
-      </c>
-      <c r="K124">
-        <v>24</v>
-      </c>
-      <c r="L124">
-        <v>3</v>
-      </c>
-      <c r="M124">
+      <c r="I124" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K124" s="5">
+        <v>24</v>
+      </c>
+      <c r="L124" s="5">
+        <v>3</v>
+      </c>
+      <c r="M124" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6069,40 +6114,40 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="5">
         <v>4</v>
       </c>
-      <c r="D125">
-        <v>0.4</v>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="F125">
-        <v>40</v>
-      </c>
-      <c r="G125">
-        <v>420</v>
-      </c>
-      <c r="H125">
+      <c r="D125" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E125" s="5">
+        <v>3</v>
+      </c>
+      <c r="F125" s="5">
+        <v>40</v>
+      </c>
+      <c r="G125" s="5">
+        <v>420</v>
+      </c>
+      <c r="H125" s="5">
         <v>8</v>
       </c>
-      <c r="I125">
-        <v>0.2</v>
-      </c>
-      <c r="J125">
-        <v>0.05</v>
-      </c>
-      <c r="K125">
-        <v>24</v>
-      </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
+      <c r="I125" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K125" s="5">
+        <v>24</v>
+      </c>
+      <c r="L125" s="5">
+        <v>3</v>
+      </c>
+      <c r="M125" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6110,40 +6155,40 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="5">
         <v>4</v>
       </c>
-      <c r="D126">
-        <v>0.4</v>
-      </c>
-      <c r="E126">
-        <v>3</v>
-      </c>
-      <c r="F126">
-        <v>40</v>
-      </c>
-      <c r="G126">
-        <v>420</v>
-      </c>
-      <c r="H126">
+      <c r="D126" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E126" s="5">
+        <v>3</v>
+      </c>
+      <c r="F126" s="5">
+        <v>40</v>
+      </c>
+      <c r="G126" s="5">
+        <v>420</v>
+      </c>
+      <c r="H126" s="5">
         <v>15</v>
       </c>
-      <c r="I126">
-        <v>0.2</v>
-      </c>
-      <c r="J126">
-        <v>0.05</v>
-      </c>
-      <c r="K126">
-        <v>24</v>
-      </c>
-      <c r="L126">
-        <v>3</v>
-      </c>
-      <c r="M126">
+      <c r="I126" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K126" s="5">
+        <v>24</v>
+      </c>
+      <c r="L126" s="5">
+        <v>3</v>
+      </c>
+      <c r="M126" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6151,40 +6196,40 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>4</v>
       </c>
-      <c r="D127">
-        <v>0.4</v>
-      </c>
-      <c r="E127">
-        <v>3</v>
-      </c>
-      <c r="F127">
-        <v>40</v>
-      </c>
-      <c r="G127">
-        <v>420</v>
-      </c>
-      <c r="H127">
+      <c r="D127" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E127" s="5">
+        <v>3</v>
+      </c>
+      <c r="F127" s="5">
+        <v>40</v>
+      </c>
+      <c r="G127" s="5">
+        <v>420</v>
+      </c>
+      <c r="H127" s="5">
         <v>20</v>
       </c>
-      <c r="I127">
-        <v>0.2</v>
-      </c>
-      <c r="J127">
-        <v>0.05</v>
-      </c>
-      <c r="K127">
-        <v>24</v>
-      </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
+      <c r="I127" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K127" s="5">
+        <v>24</v>
+      </c>
+      <c r="L127" s="5">
+        <v>3</v>
+      </c>
+      <c r="M127" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6192,40 +6237,40 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="5">
         <v>4</v>
       </c>
-      <c r="D128">
-        <v>0.4</v>
-      </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
-      <c r="F128">
-        <v>80</v>
-      </c>
-      <c r="G128">
-        <v>360</v>
-      </c>
-      <c r="H128">
+      <c r="D128" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E128" s="5">
+        <v>3</v>
+      </c>
+      <c r="F128" s="5">
+        <v>80</v>
+      </c>
+      <c r="G128" s="5">
+        <v>360</v>
+      </c>
+      <c r="H128" s="5">
         <v>8</v>
       </c>
-      <c r="I128">
-        <v>0.2</v>
-      </c>
-      <c r="J128">
-        <v>0.05</v>
-      </c>
-      <c r="K128">
-        <v>24</v>
-      </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
+      <c r="I128" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K128" s="5">
+        <v>24</v>
+      </c>
+      <c r="L128" s="5">
+        <v>3</v>
+      </c>
+      <c r="M128" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6233,40 +6278,40 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
         <v>4</v>
       </c>
-      <c r="D129">
-        <v>0.4</v>
-      </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129">
-        <v>80</v>
-      </c>
-      <c r="G129">
-        <v>360</v>
-      </c>
-      <c r="H129">
+      <c r="D129" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3</v>
+      </c>
+      <c r="F129" s="5">
+        <v>80</v>
+      </c>
+      <c r="G129" s="5">
+        <v>360</v>
+      </c>
+      <c r="H129" s="5">
         <v>15</v>
       </c>
-      <c r="I129">
-        <v>0.2</v>
-      </c>
-      <c r="J129">
-        <v>0.05</v>
-      </c>
-      <c r="K129">
-        <v>24</v>
-      </c>
-      <c r="L129">
-        <v>3</v>
-      </c>
-      <c r="M129">
+      <c r="I129" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J129" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K129" s="5">
+        <v>24</v>
+      </c>
+      <c r="L129" s="5">
+        <v>3</v>
+      </c>
+      <c r="M129" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6274,40 +6319,40 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
         <v>4</v>
       </c>
-      <c r="D130">
-        <v>0.4</v>
-      </c>
-      <c r="E130">
-        <v>3</v>
-      </c>
-      <c r="F130">
-        <v>80</v>
-      </c>
-      <c r="G130">
-        <v>360</v>
-      </c>
-      <c r="H130">
+      <c r="D130" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E130" s="5">
+        <v>3</v>
+      </c>
+      <c r="F130" s="5">
+        <v>80</v>
+      </c>
+      <c r="G130" s="5">
+        <v>360</v>
+      </c>
+      <c r="H130" s="5">
         <v>20</v>
       </c>
-      <c r="I130">
-        <v>0.2</v>
-      </c>
-      <c r="J130">
-        <v>0.05</v>
-      </c>
-      <c r="K130">
-        <v>24</v>
-      </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
+      <c r="I130" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J130" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K130" s="5">
+        <v>24</v>
+      </c>
+      <c r="L130" s="5">
+        <v>3</v>
+      </c>
+      <c r="M130" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6315,40 +6360,40 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="5">
         <v>4</v>
       </c>
-      <c r="D131">
-        <v>0.4</v>
-      </c>
-      <c r="E131">
-        <v>3</v>
-      </c>
-      <c r="F131">
-        <v>80</v>
-      </c>
-      <c r="G131">
-        <v>420</v>
-      </c>
-      <c r="H131">
+      <c r="D131" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3</v>
+      </c>
+      <c r="F131" s="5">
+        <v>80</v>
+      </c>
+      <c r="G131" s="5">
+        <v>420</v>
+      </c>
+      <c r="H131" s="5">
         <v>8</v>
       </c>
-      <c r="I131">
-        <v>0.2</v>
-      </c>
-      <c r="J131">
-        <v>0.05</v>
-      </c>
-      <c r="K131">
-        <v>24</v>
-      </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
+      <c r="I131" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K131" s="5">
+        <v>24</v>
+      </c>
+      <c r="L131" s="5">
+        <v>3</v>
+      </c>
+      <c r="M131" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6356,40 +6401,40 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
         <v>4</v>
       </c>
-      <c r="D132">
-        <v>0.4</v>
-      </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
-      <c r="F132">
-        <v>80</v>
-      </c>
-      <c r="G132">
-        <v>420</v>
-      </c>
-      <c r="H132">
+      <c r="D132" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E132" s="5">
+        <v>3</v>
+      </c>
+      <c r="F132" s="5">
+        <v>80</v>
+      </c>
+      <c r="G132" s="5">
+        <v>420</v>
+      </c>
+      <c r="H132" s="5">
         <v>15</v>
       </c>
-      <c r="I132">
-        <v>0.2</v>
-      </c>
-      <c r="J132">
-        <v>0.05</v>
-      </c>
-      <c r="K132">
-        <v>24</v>
-      </c>
-      <c r="L132">
-        <v>3</v>
-      </c>
-      <c r="M132">
+      <c r="I132" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K132" s="5">
+        <v>24</v>
+      </c>
+      <c r="L132" s="5">
+        <v>3</v>
+      </c>
+      <c r="M132" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6397,532 +6442,532 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>4</v>
       </c>
-      <c r="D133">
-        <v>0.4</v>
-      </c>
-      <c r="E133">
-        <v>3</v>
-      </c>
-      <c r="F133">
-        <v>80</v>
-      </c>
-      <c r="G133">
-        <v>420</v>
-      </c>
-      <c r="H133">
+      <c r="D133" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E133" s="5">
+        <v>3</v>
+      </c>
+      <c r="F133" s="5">
+        <v>80</v>
+      </c>
+      <c r="G133" s="5">
+        <v>420</v>
+      </c>
+      <c r="H133" s="5">
         <v>20</v>
       </c>
-      <c r="I133">
-        <v>0.2</v>
-      </c>
-      <c r="J133">
-        <v>0.05</v>
-      </c>
-      <c r="K133">
-        <v>24</v>
-      </c>
-      <c r="L133">
-        <v>3</v>
-      </c>
-      <c r="M133">
+      <c r="I133" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K133" s="5">
+        <v>24</v>
+      </c>
+      <c r="L133" s="5">
+        <v>3</v>
+      </c>
+      <c r="M133" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="3">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="4">
         <v>4</v>
       </c>
-      <c r="D134">
-        <v>0.4</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-      <c r="F134">
-        <v>40</v>
-      </c>
-      <c r="G134">
-        <v>360</v>
-      </c>
-      <c r="H134">
+      <c r="D134" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E134" s="4">
+        <v>5</v>
+      </c>
+      <c r="F134" s="4">
+        <v>40</v>
+      </c>
+      <c r="G134" s="4">
+        <v>360</v>
+      </c>
+      <c r="H134" s="4">
         <v>8</v>
       </c>
-      <c r="I134">
-        <v>0.2</v>
-      </c>
-      <c r="J134">
-        <v>0.05</v>
-      </c>
-      <c r="K134">
-        <v>24</v>
-      </c>
-      <c r="L134">
-        <v>3</v>
-      </c>
-      <c r="M134">
+      <c r="I134" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K134" s="4">
+        <v>24</v>
+      </c>
+      <c r="L134" s="4">
+        <v>3</v>
+      </c>
+      <c r="M134" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="A135" s="3">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="4">
         <v>4</v>
       </c>
-      <c r="D135">
-        <v>0.4</v>
-      </c>
-      <c r="E135">
-        <v>5</v>
-      </c>
-      <c r="F135">
-        <v>40</v>
-      </c>
-      <c r="G135">
-        <v>360</v>
-      </c>
-      <c r="H135">
+      <c r="D135" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E135" s="4">
+        <v>5</v>
+      </c>
+      <c r="F135" s="4">
+        <v>40</v>
+      </c>
+      <c r="G135" s="4">
+        <v>360</v>
+      </c>
+      <c r="H135" s="4">
         <v>15</v>
       </c>
-      <c r="I135">
-        <v>0.2</v>
-      </c>
-      <c r="J135">
-        <v>0.05</v>
-      </c>
-      <c r="K135">
-        <v>24</v>
-      </c>
-      <c r="L135">
-        <v>3</v>
-      </c>
-      <c r="M135">
+      <c r="I135" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K135" s="4">
+        <v>24</v>
+      </c>
+      <c r="L135" s="4">
+        <v>3</v>
+      </c>
+      <c r="M135" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="A136" s="3">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="4">
         <v>4</v>
       </c>
-      <c r="D136">
-        <v>0.4</v>
-      </c>
-      <c r="E136">
-        <v>5</v>
-      </c>
-      <c r="F136">
-        <v>40</v>
-      </c>
-      <c r="G136">
-        <v>360</v>
-      </c>
-      <c r="H136">
+      <c r="D136" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E136" s="4">
+        <v>5</v>
+      </c>
+      <c r="F136" s="4">
+        <v>40</v>
+      </c>
+      <c r="G136" s="4">
+        <v>360</v>
+      </c>
+      <c r="H136" s="4">
         <v>20</v>
       </c>
-      <c r="I136">
-        <v>0.2</v>
-      </c>
-      <c r="J136">
-        <v>0.05</v>
-      </c>
-      <c r="K136">
-        <v>24</v>
-      </c>
-      <c r="L136">
-        <v>3</v>
-      </c>
-      <c r="M136">
+      <c r="I136" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K136" s="4">
+        <v>24</v>
+      </c>
+      <c r="L136" s="4">
+        <v>3</v>
+      </c>
+      <c r="M136" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="A137" s="3">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="4">
         <v>4</v>
       </c>
-      <c r="D137">
-        <v>0.4</v>
-      </c>
-      <c r="E137">
-        <v>5</v>
-      </c>
-      <c r="F137">
-        <v>40</v>
-      </c>
-      <c r="G137">
-        <v>420</v>
-      </c>
-      <c r="H137">
+      <c r="D137" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E137" s="4">
+        <v>5</v>
+      </c>
+      <c r="F137" s="4">
+        <v>40</v>
+      </c>
+      <c r="G137" s="4">
+        <v>420</v>
+      </c>
+      <c r="H137" s="4">
         <v>8</v>
       </c>
-      <c r="I137">
-        <v>0.2</v>
-      </c>
-      <c r="J137">
-        <v>0.05</v>
-      </c>
-      <c r="K137">
-        <v>24</v>
-      </c>
-      <c r="L137">
-        <v>3</v>
-      </c>
-      <c r="M137">
+      <c r="I137" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K137" s="4">
+        <v>24</v>
+      </c>
+      <c r="L137" s="4">
+        <v>3</v>
+      </c>
+      <c r="M137" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="A138" s="3">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="4">
         <v>4</v>
       </c>
-      <c r="D138">
-        <v>0.4</v>
-      </c>
-      <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138">
-        <v>40</v>
-      </c>
-      <c r="G138">
-        <v>420</v>
-      </c>
-      <c r="H138">
+      <c r="D138" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E138" s="4">
+        <v>5</v>
+      </c>
+      <c r="F138" s="4">
+        <v>40</v>
+      </c>
+      <c r="G138" s="4">
+        <v>420</v>
+      </c>
+      <c r="H138" s="4">
         <v>15</v>
       </c>
-      <c r="I138">
-        <v>0.2</v>
-      </c>
-      <c r="J138">
-        <v>0.05</v>
-      </c>
-      <c r="K138">
-        <v>24</v>
-      </c>
-      <c r="L138">
-        <v>3</v>
-      </c>
-      <c r="M138">
+      <c r="I138" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K138" s="4">
+        <v>24</v>
+      </c>
+      <c r="L138" s="4">
+        <v>3</v>
+      </c>
+      <c r="M138" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="A139" s="3">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="4">
         <v>4</v>
       </c>
-      <c r="D139">
-        <v>0.4</v>
-      </c>
-      <c r="E139">
-        <v>5</v>
-      </c>
-      <c r="F139">
-        <v>40</v>
-      </c>
-      <c r="G139">
-        <v>420</v>
-      </c>
-      <c r="H139">
+      <c r="D139" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E139" s="4">
+        <v>5</v>
+      </c>
+      <c r="F139" s="4">
+        <v>40</v>
+      </c>
+      <c r="G139" s="4">
+        <v>420</v>
+      </c>
+      <c r="H139" s="4">
         <v>20</v>
       </c>
-      <c r="I139">
-        <v>0.2</v>
-      </c>
-      <c r="J139">
-        <v>0.05</v>
-      </c>
-      <c r="K139">
-        <v>24</v>
-      </c>
-      <c r="L139">
-        <v>3</v>
-      </c>
-      <c r="M139">
+      <c r="I139" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K139" s="4">
+        <v>24</v>
+      </c>
+      <c r="L139" s="4">
+        <v>3</v>
+      </c>
+      <c r="M139" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="A140" s="3">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="4">
         <v>4</v>
       </c>
-      <c r="D140">
-        <v>0.4</v>
-      </c>
-      <c r="E140">
-        <v>5</v>
-      </c>
-      <c r="F140">
-        <v>80</v>
-      </c>
-      <c r="G140">
-        <v>360</v>
-      </c>
-      <c r="H140">
+      <c r="D140" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E140" s="4">
+        <v>5</v>
+      </c>
+      <c r="F140" s="4">
+        <v>80</v>
+      </c>
+      <c r="G140" s="4">
+        <v>360</v>
+      </c>
+      <c r="H140" s="4">
         <v>8</v>
       </c>
-      <c r="I140">
-        <v>0.2</v>
-      </c>
-      <c r="J140">
-        <v>0.05</v>
-      </c>
-      <c r="K140">
-        <v>24</v>
-      </c>
-      <c r="L140">
-        <v>3</v>
-      </c>
-      <c r="M140">
+      <c r="I140" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K140" s="4">
+        <v>24</v>
+      </c>
+      <c r="L140" s="4">
+        <v>3</v>
+      </c>
+      <c r="M140" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="A141" s="3">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="4">
         <v>4</v>
       </c>
-      <c r="D141">
-        <v>0.4</v>
-      </c>
-      <c r="E141">
-        <v>5</v>
-      </c>
-      <c r="F141">
-        <v>80</v>
-      </c>
-      <c r="G141">
-        <v>360</v>
-      </c>
-      <c r="H141">
+      <c r="D141" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E141" s="4">
+        <v>5</v>
+      </c>
+      <c r="F141" s="4">
+        <v>80</v>
+      </c>
+      <c r="G141" s="4">
+        <v>360</v>
+      </c>
+      <c r="H141" s="4">
         <v>15</v>
       </c>
-      <c r="I141">
-        <v>0.2</v>
-      </c>
-      <c r="J141">
-        <v>0.05</v>
-      </c>
-      <c r="K141">
-        <v>24</v>
-      </c>
-      <c r="L141">
-        <v>3</v>
-      </c>
-      <c r="M141">
+      <c r="I141" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K141" s="4">
+        <v>24</v>
+      </c>
+      <c r="L141" s="4">
+        <v>3</v>
+      </c>
+      <c r="M141" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="A142" s="3">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="4">
         <v>4</v>
       </c>
-      <c r="D142">
-        <v>0.4</v>
-      </c>
-      <c r="E142">
-        <v>5</v>
-      </c>
-      <c r="F142">
-        <v>80</v>
-      </c>
-      <c r="G142">
-        <v>360</v>
-      </c>
-      <c r="H142">
+      <c r="D142" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E142" s="4">
+        <v>5</v>
+      </c>
+      <c r="F142" s="4">
+        <v>80</v>
+      </c>
+      <c r="G142" s="4">
+        <v>360</v>
+      </c>
+      <c r="H142" s="4">
         <v>20</v>
       </c>
-      <c r="I142">
-        <v>0.2</v>
-      </c>
-      <c r="J142">
-        <v>0.05</v>
-      </c>
-      <c r="K142">
-        <v>24</v>
-      </c>
-      <c r="L142">
-        <v>3</v>
-      </c>
-      <c r="M142">
+      <c r="I142" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K142" s="4">
+        <v>24</v>
+      </c>
+      <c r="L142" s="4">
+        <v>3</v>
+      </c>
+      <c r="M142" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="A143" s="3">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="4">
         <v>4</v>
       </c>
-      <c r="D143">
-        <v>0.4</v>
-      </c>
-      <c r="E143">
-        <v>5</v>
-      </c>
-      <c r="F143">
-        <v>80</v>
-      </c>
-      <c r="G143">
-        <v>420</v>
-      </c>
-      <c r="H143">
+      <c r="D143" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E143" s="4">
+        <v>5</v>
+      </c>
+      <c r="F143" s="4">
+        <v>80</v>
+      </c>
+      <c r="G143" s="4">
+        <v>420</v>
+      </c>
+      <c r="H143" s="4">
         <v>8</v>
       </c>
-      <c r="I143">
-        <v>0.2</v>
-      </c>
-      <c r="J143">
-        <v>0.05</v>
-      </c>
-      <c r="K143">
-        <v>24</v>
-      </c>
-      <c r="L143">
-        <v>3</v>
-      </c>
-      <c r="M143">
+      <c r="I143" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K143" s="4">
+        <v>24</v>
+      </c>
+      <c r="L143" s="4">
+        <v>3</v>
+      </c>
+      <c r="M143" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="A144" s="3">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="4">
         <v>4</v>
       </c>
-      <c r="D144">
-        <v>0.4</v>
-      </c>
-      <c r="E144">
-        <v>5</v>
-      </c>
-      <c r="F144">
-        <v>80</v>
-      </c>
-      <c r="G144">
-        <v>420</v>
-      </c>
-      <c r="H144">
+      <c r="D144" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E144" s="4">
+        <v>5</v>
+      </c>
+      <c r="F144" s="4">
+        <v>80</v>
+      </c>
+      <c r="G144" s="4">
+        <v>420</v>
+      </c>
+      <c r="H144" s="4">
         <v>15</v>
       </c>
-      <c r="I144">
-        <v>0.2</v>
-      </c>
-      <c r="J144">
-        <v>0.05</v>
-      </c>
-      <c r="K144">
-        <v>24</v>
-      </c>
-      <c r="L144">
-        <v>3</v>
-      </c>
-      <c r="M144">
+      <c r="I144" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K144" s="4">
+        <v>24</v>
+      </c>
+      <c r="L144" s="4">
+        <v>3</v>
+      </c>
+      <c r="M144" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="A145" s="3">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="4">
         <v>4</v>
       </c>
-      <c r="D145">
-        <v>0.4</v>
-      </c>
-      <c r="E145">
-        <v>5</v>
-      </c>
-      <c r="F145">
-        <v>80</v>
-      </c>
-      <c r="G145">
-        <v>420</v>
-      </c>
-      <c r="H145">
+      <c r="D145" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E145" s="4">
+        <v>5</v>
+      </c>
+      <c r="F145" s="4">
+        <v>80</v>
+      </c>
+      <c r="G145" s="4">
+        <v>420</v>
+      </c>
+      <c r="H145" s="4">
         <v>20</v>
       </c>
-      <c r="I145">
-        <v>0.2</v>
-      </c>
-      <c r="J145">
-        <v>0.05</v>
-      </c>
-      <c r="K145">
-        <v>24</v>
-      </c>
-      <c r="L145">
-        <v>3</v>
-      </c>
-      <c r="M145">
+      <c r="I145" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J145" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K145" s="4">
+        <v>24</v>
+      </c>
+      <c r="L145" s="4">
+        <v>3</v>
+      </c>
+      <c r="M145" s="4">
         <v>0</v>
       </c>
     </row>
